--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV093-001 until DPLKINV093-002 - Setup Profile Bank Investasi - Pasar Uang Approve Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV093-001 until DPLKINV093-002 - Setup Profile Bank Investasi - Pasar Uang Approve Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAD7F81-CDA0-4569-B0CB-9E5855C50009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FD8839-789A-47D1-BF4B-95D13EC05A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,65 +83,65 @@
     <t>DPLKINV093-001</t>
   </si>
   <si>
+    <t>Verifikasi dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>Verifikasi</t>
+  </si>
+  <si>
+    <t>Verifikasi Profile Bank</t>
+  </si>
+  <si>
+    <t>1 : Setuju</t>
+  </si>
+  <si>
+    <t>DATA APPROVAL</t>
+  </si>
+  <si>
+    <t>EXPLAIN</t>
+  </si>
+  <si>
+    <t>Diverifikasi</t>
+  </si>
+  <si>
+    <t>DPLKINV093-002</t>
+  </si>
+  <si>
+    <t>Verifikasi - Kembalikan ke Register -- Verifikasi - Verifikasi Profile Bank</t>
+  </si>
+  <si>
+    <t>Data berhasil dikembalikan ke Register</t>
+  </si>
+  <si>
+    <t>Verifikasi - Setuju --Verifikasi - Verifikasi Profile Bank</t>
+  </si>
+  <si>
+    <t>DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
+  </si>
+  <si>
+    <t>0 : Kembalikan ke Data Entry</t>
+  </si>
+  <si>
+    <t>Dikembalikan Ke Data Entry</t>
+  </si>
+  <si>
     <t>Username : 32070;
 Password : bni1234;
 Role : 18/19 - Pimpinan Kelompok Investasi/Pengelola Investasi;
-Bank ID : Sesuai hasil generate;
-Status Verifikasi : 1 : Setuju;
-Keterangan Verifikasi : DATA APPROVAL</t>
-  </si>
-  <si>
-    <t>Verifikasi dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>Verifikasi</t>
-  </si>
-  <si>
-    <t>Verifikasi Profile Bank</t>
-  </si>
-  <si>
-    <t>1 : Setuju</t>
-  </si>
-  <si>
-    <t>DATA APPROVAL</t>
-  </si>
-  <si>
-    <t>EXPLAIN</t>
-  </si>
-  <si>
-    <t>Diverifikasi</t>
-  </si>
-  <si>
-    <t>DPLKINV093-002</t>
+Bank ID : PAU0228;
+Status Verifikasi : 0 : Kembalikan ke Register;
+Keterangan Verifikasi : DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
+  </si>
+  <si>
+    <t>PAU0228</t>
   </si>
   <si>
     <t>Username : 32070;
 Password : bni1234;
 Role : 18/19 - Pimpinan Kelompok Investasi/Pengelola Investasi;
-Bank ID : Sesuai hasil generate;
-Status Verifikasi : 0 : Kembalikan ke Register;
-Keterangan Verifikasi : DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
-  </si>
-  <si>
-    <t>Verifikasi - Kembalikan ke Register -- Verifikasi - Verifikasi Profile Bank</t>
-  </si>
-  <si>
-    <t>Data berhasil dikembalikan ke Register</t>
-  </si>
-  <si>
-    <t>Verifikasi - Setuju --Verifikasi - Verifikasi Profile Bank</t>
-  </si>
-  <si>
-    <t>DATA AKAN DIKEMBALIKAN UNTUK DIEDIT</t>
-  </si>
-  <si>
-    <t>0 : Kembalikan ke Data Entry</t>
-  </si>
-  <si>
-    <t>Dikembalikan Ke Data Entry</t>
-  </si>
-  <si>
-    <t>PAU0226</t>
+Bank ID : PAU0228;
+Status Verifikasi : 1 : Setuju;
+Keterangan Verifikasi : DATA APPROVAL</t>
   </si>
 </sst>
 </file>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="120" x14ac:dyDescent="0.25">
@@ -618,13 +618,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
         <v>32070</v>
@@ -639,22 +639,22 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BB7166-7890-4821-A3B5-3213A70F7F77}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +822,7 @@
         <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -830,19 +830,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
         <v>32070</v>
@@ -857,22 +857,22 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
